--- a/DynamicValidation.xlsx
+++ b/DynamicValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://starkeyhearingtechnologies-my.sharepoint.com/personal/mark_biegert_starkey_com/Documents/Desktop/Toss/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{7F9EFF46-2F55-446C-A84A-93020296B45B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F47E693-3820-47ED-A97A-CC691E141781}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC08FC-3E58-4FDF-9363-8B943BE5D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="15720" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,6 +35,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
   <si>
     <t>FROM:</t>
   </si>
@@ -259,6 +261,9 @@
   </si>
   <si>
     <t>Dynamic List</t>
+  </si>
+  <si>
+    <t>=XLOOKUP($G4,O:O,P:P,"",0)#</t>
   </si>
 </sst>
 </file>
@@ -385,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,8 +455,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -477,6 +494,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -498,7 +524,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -512,7 +538,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="17"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Calculation" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -883,8 +913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4330065" y="531495"/>
-          <a:ext cx="2106930" cy="535305"/>
+          <a:off x="4331970" y="523875"/>
+          <a:ext cx="2112645" cy="527685"/>
           <a:chOff x="10536555" y="342900"/>
           <a:chExt cx="2122170" cy="542925"/>
         </a:xfrm>
@@ -1191,7 +1221,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1497,10 +1527,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1508,9 +1538,11 @@
     <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1551,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1527,8 +1559,11 @@
         <v>64</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J2" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1537,7 +1572,37 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>27</v>
       </c>
@@ -1561,8 +1626,14 @@
       <c r="K8" t="str">
         <v>Libya</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -1579,8 +1650,14 @@
         <f t="array" ref="I9">_xlfn.CHOOSEROWS(TRANSPOSE(_xlfn.UNIQUE(_xlfn._xlws.FILTER(Table2[[Continent]:[Country]],Table2[Continent]=H9))),2)</f>
         <v>Antarctica</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>33</v>
       </c>
@@ -1606,8 +1683,14 @@
       <c r="L10" t="str">
         <v>Vietname</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
         <f>C10</f>
         <v>Africa</v>
@@ -1640,8 +1723,14 @@
       <c r="N11" t="str">
         <v>Bolivia</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C12" t="str">
         <f>C11</f>
         <v>Africa</v>
@@ -1665,8 +1754,14 @@
       <c r="K12" t="str">
         <v>Spain</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C13" t="str">
         <f>C12</f>
         <v>Africa</v>
@@ -1693,8 +1788,14 @@
       <c r="L13" t="str">
         <v>US</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <f>C13</f>
         <v>Africa</v>
@@ -1718,8 +1819,14 @@
       <c r="K14" t="str">
         <v>Paragua</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>34</v>
       </c>
@@ -1729,8 +1836,14 @@
       <c r="E15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q15" s="15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -1765,7 +1878,7 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="str">
-        <f>C18</f>
+        <f t="shared" ref="C19:C24" si="0">C18</f>
         <v>Asia</v>
       </c>
       <c r="D19" t="s">
@@ -1777,7 +1890,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
-        <f>C19</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="D20" t="s">
@@ -1789,7 +1902,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
-        <f>C20</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="D21" t="s">
@@ -1801,7 +1914,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="str">
-        <f>C21</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="D22" t="s">
@@ -1813,7 +1926,7 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="str">
-        <f>C22</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="D23" t="s">
@@ -1825,7 +1938,7 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
-        <f>C23</f>
+        <f t="shared" si="0"/>
         <v>Asia</v>
       </c>
       <c r="D24" t="s">
@@ -1859,7 +1972,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="str">
-        <f>C26</f>
+        <f t="shared" ref="C27:C36" si="1">C26</f>
         <v>Australia</v>
       </c>
       <c r="D27" t="s">
@@ -1871,7 +1984,7 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="str">
-        <f>C27</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D28" t="s">
@@ -1883,7 +1996,7 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="str">
-        <f>C28</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D29" t="s">
@@ -1895,7 +2008,7 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="str">
-        <f>C29</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D30" t="s">
@@ -1907,7 +2020,7 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="str">
-        <f>C30</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D31" t="s">
@@ -1919,7 +2032,7 @@
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="str">
-        <f>C31</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D32" t="s">
@@ -1931,7 +2044,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="str">
-        <f>C32</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D33" t="s">
@@ -1943,7 +2056,7 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="str">
-        <f>C33</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D34" t="s">
@@ -1955,7 +2068,7 @@
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="str">
-        <f>C34</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D35" t="s">
@@ -1967,7 +2080,7 @@
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="str">
-        <f>C35</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="D36" t="s">
@@ -2071,7 +2184,7 @@
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" t="str">
-        <f>C44</f>
+        <f t="shared" ref="C45:C50" si="2">C44</f>
         <v>North America</v>
       </c>
       <c r="D45" t="s">
@@ -2083,7 +2196,7 @@
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" t="str">
-        <f>C45</f>
+        <f t="shared" si="2"/>
         <v>North America</v>
       </c>
       <c r="D46" t="s">
@@ -2095,7 +2208,7 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" t="str">
-        <f>C46</f>
+        <f t="shared" si="2"/>
         <v>North America</v>
       </c>
       <c r="D47" t="s">
@@ -2107,7 +2220,7 @@
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" t="str">
-        <f>C47</f>
+        <f t="shared" si="2"/>
         <v>North America</v>
       </c>
       <c r="D48" t="s">
@@ -2119,7 +2232,7 @@
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="str">
-        <f>C48</f>
+        <f t="shared" si="2"/>
         <v>North America</v>
       </c>
       <c r="D49" t="s">
@@ -2131,7 +2244,7 @@
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" t="str">
-        <f>C49</f>
+        <f t="shared" si="2"/>
         <v>North America</v>
       </c>
       <c r="D50" t="s">
@@ -2217,6 +2330,14 @@
     <sortCondition ref="D9:D56"/>
     <sortCondition descending="1" ref="E9:E56"/>
   </sortState>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P15" xr:uid="{A982EC82-CE10-468B-9A15-9C20D665D947}">
+      <formula1>_xlfn.ANCHORARRAY($H$8)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q15" xr:uid="{393ADD2D-73F5-4C96-80C8-E0A8C150E88D}">
+      <formula1>_xlfn.ANCHORARRAY(_xlfn.XLOOKUP($P5,$H$8:$H$14,$I$8:$I$14,"",0))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2406,19 +2527,15 @@
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
+      <c r="F20">
         <v>1</v>
       </c>
     </row>
@@ -2426,11 +2543,10 @@
       <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21">
         <v>2</v>
       </c>
     </row>
@@ -2438,19 +2554,15 @@
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13">
+      <c r="F23">
         <v>3</v>
       </c>
     </row>
@@ -2458,11 +2570,10 @@
       <c r="C24">
         <v>2</v>
       </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13">
+      <c r="E24">
         <v>4</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
@@ -2470,19 +2581,15 @@
       <c r="B25" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13">
+      <c r="F26">
         <v>5</v>
       </c>
     </row>
@@ -2490,11 +2597,10 @@
       <c r="C27">
         <v>2</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27">
         <v>6</v>
       </c>
     </row>
@@ -2502,13 +2608,13 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28">
         <v>9</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28">
         <v>21</v>
       </c>
     </row>

--- a/DynamicValidation.xlsx
+++ b/DynamicValidation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AC08FC-3E58-4FDF-9363-8B943BE5D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0ECA31-94A4-4A7C-89EE-757238231F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t>FROM:</t>
   </si>
@@ -390,7 +390,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -467,6 +467,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBFFEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -524,7 +530,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -543,6 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Calculation" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -822,9 +829,9 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFEBFFEB"/>
       <color rgb="FFFFBDFF"/>
       <color rgb="FFCCFFCC"/>
-      <color rgb="FFEBFFEB"/>
       <color rgb="FFFF9999"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFEFFFEF"/>
@@ -1221,7 +1228,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1527,10 +1534,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFCCFFCC"/>
   </sheetPr>
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1549,7 @@
     <col min="17" max="17" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1558,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1572,37 +1579,46 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P4" s="16" t="s">
         <v>27</v>
       </c>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="P5" s="14" t="s">
         <v>32</v>
       </c>
       <c r="Q5" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="Q6" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P7" s="14" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>27</v>
       </c>
@@ -1632,8 +1648,11 @@
       <c r="Q8" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -1656,8 +1675,11 @@
       <c r="Q9" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>33</v>
       </c>
@@ -1689,8 +1711,11 @@
       <c r="Q10" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" t="str">
         <f>C10</f>
         <v>Africa</v>
@@ -1729,8 +1754,11 @@
       <c r="Q11" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" t="str">
         <f>C11</f>
         <v>Africa</v>
@@ -1760,8 +1788,11 @@
       <c r="Q12" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" t="str">
         <f>C12</f>
         <v>Africa</v>
@@ -1794,8 +1825,11 @@
       <c r="Q13" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" t="str">
         <f>C13</f>
         <v>Africa</v>
@@ -1825,8 +1859,11 @@
       <c r="Q14" s="15" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>34</v>
       </c>
@@ -1842,8 +1879,11 @@
       <c r="Q15" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>34</v>
       </c>
@@ -1854,7 +1894,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -1865,7 +1905,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>28</v>
       </c>
@@ -1876,7 +1916,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="str">
         <f t="shared" ref="C19:C24" si="0">C18</f>
         <v>Asia</v>
@@ -1887,8 +1927,19 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H19" t="str" cm="1">
+        <f t="array" ref="H19:H42">_xlfn._xlws.SORT(_xlfn.UNIQUE(Table2[Continent]&amp;Table2[Country]))</f>
+        <v>AfricaEgypt</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19:J19">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H19),,-1)))</f>
+        <v>A</v>
+      </c>
+      <c r="J19" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" t="str">
         <f t="shared" si="0"/>
         <v>Asia</v>
@@ -1899,8 +1950,18 @@
       <c r="E20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <v>AfricaKenya</v>
+      </c>
+      <c r="I20" t="str" cm="1">
+        <f t="array" ref="I20:J20">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H20),,-1)))</f>
+        <v>B</v>
+      </c>
+      <c r="J20" t="str">
+        <v>C</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" t="str">
         <f t="shared" si="0"/>
         <v>Asia</v>
@@ -1911,8 +1972,18 @@
       <c r="E21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <v>AfricaLibya</v>
+      </c>
+      <c r="I21" t="str" cm="1">
+        <f t="array" ref="I21:J21">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H21),,-1)))</f>
+        <v>A</v>
+      </c>
+      <c r="J21" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C22" t="str">
         <f t="shared" si="0"/>
         <v>Asia</v>
@@ -1923,8 +1994,18 @@
       <c r="E22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H22" t="str">
+        <v>AntarcticaAntarctica</v>
+      </c>
+      <c r="I22" t="str" cm="1">
+        <f t="array" ref="I22:J22">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H22),,-1)))</f>
+        <v>C</v>
+      </c>
+      <c r="J22" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" t="str">
         <f t="shared" si="0"/>
         <v>Asia</v>
@@ -1935,8 +2016,18 @@
       <c r="E23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H23" t="str">
+        <v>AsiaChina</v>
+      </c>
+      <c r="I23" t="str" cm="1">
+        <f t="array" ref="I23:J23">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H23),,-1)))</f>
+        <v>E</v>
+      </c>
+      <c r="J23" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" t="str">
         <f t="shared" si="0"/>
         <v>Asia</v>
@@ -1947,8 +2038,18 @@
       <c r="E24" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H24" t="str">
+        <v>AsiaIndia</v>
+      </c>
+      <c r="I24" t="str" cm="1">
+        <f t="array" ref="I24:J24">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H24),,-1)))</f>
+        <v>B</v>
+      </c>
+      <c r="J24" t="str">
+        <v>G</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>32</v>
       </c>
@@ -1958,8 +2059,18 @@
       <c r="E25" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H25" t="str">
+        <v>AsiaNepal</v>
+      </c>
+      <c r="I25" t="str" cm="1">
+        <f t="array" ref="I25:J25">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H25),,-1)))</f>
+        <v>A</v>
+      </c>
+      <c r="J25" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>32</v>
       </c>
@@ -1969,8 +2080,18 @@
       <c r="E26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H26" t="str">
+        <v>AsiaVietname</v>
+      </c>
+      <c r="I26" t="str" cm="1">
+        <f t="array" ref="I26:J26">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H26),,-1)))</f>
+        <v>C</v>
+      </c>
+      <c r="J26" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" t="str">
         <f t="shared" ref="C27:C36" si="1">C26</f>
         <v>Australia</v>
@@ -1981,8 +2102,18 @@
       <c r="E27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H27" t="str">
+        <v>AustraliaArgentina</v>
+      </c>
+      <c r="I27" t="str" cm="1">
+        <f t="array" ref="I27:J27">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H27),,-1)))</f>
+        <v>E</v>
+      </c>
+      <c r="J27" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -1993,8 +2124,18 @@
       <c r="E28" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H28" t="str">
+        <v>AustraliaAustralia</v>
+      </c>
+      <c r="I28" t="str" cm="1">
+        <f t="array" ref="I28:J28">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H28),,-1)))</f>
+        <v>E</v>
+      </c>
+      <c r="J28" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -2005,8 +2146,18 @@
       <c r="E29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H29" t="str">
+        <v>AustraliaBelgium</v>
+      </c>
+      <c r="I29" t="str" cm="1">
+        <f t="array" ref="I29:J29">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H29),,-1)))</f>
+        <v>B</v>
+      </c>
+      <c r="J29" t="str">
+        <v>G</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -2017,8 +2168,18 @@
       <c r="E30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H30" t="str">
+        <v>AustraliaBolivia</v>
+      </c>
+      <c r="I30" t="str" cm="1">
+        <f t="array" ref="I30:J30">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H30),,-1)))</f>
+        <v>B</v>
+      </c>
+      <c r="J30" t="str">
+        <v>G</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C31" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -2029,8 +2190,18 @@
       <c r="E31" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H31" t="str">
+        <v>AustraliaChad</v>
+      </c>
+      <c r="I31" t="str" cm="1">
+        <f t="array" ref="I31:J31">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H31),,-1)))</f>
+        <v>A</v>
+      </c>
+      <c r="J31" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C32" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -2041,8 +2212,18 @@
       <c r="E32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H32" t="str">
+        <v>AustraliaFrance</v>
+      </c>
+      <c r="I32" t="str" cm="1">
+        <f t="array" ref="I32:J32">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H32),,-1)))</f>
+        <v>C</v>
+      </c>
+      <c r="J32" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C33" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -2053,8 +2234,18 @@
       <c r="E33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H33" t="str">
+        <v>EuropeGermany</v>
+      </c>
+      <c r="I33" t="str" cm="1">
+        <f t="array" ref="I33:J33">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H33),,-1)))</f>
+        <v>A</v>
+      </c>
+      <c r="J33" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C34" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -2065,8 +2256,18 @@
       <c r="E34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H34" t="str">
+        <v>EuropePortugal</v>
+      </c>
+      <c r="I34" t="str" cm="1">
+        <f t="array" ref="I34:J34">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H34),,-1)))</f>
+        <v>C</v>
+      </c>
+      <c r="J34" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C35" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -2077,8 +2278,18 @@
       <c r="E35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H35" t="str">
+        <v>EuropeSpain</v>
+      </c>
+      <c r="I35" t="str" cm="1">
+        <f t="array" ref="I35:J35">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H35),,-1)))</f>
+        <v>E</v>
+      </c>
+      <c r="J35" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" t="str">
         <f t="shared" si="1"/>
         <v>Australia</v>
@@ -2089,8 +2300,18 @@
       <c r="E36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H36" t="str">
+        <v>North AmericaCanada</v>
+      </c>
+      <c r="I36" t="str" cm="1">
+        <f t="array" ref="I36:J36">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H36),,-1)))</f>
+        <v>B</v>
+      </c>
+      <c r="J36" t="str">
+        <v>G</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>31</v>
       </c>
@@ -2100,8 +2321,18 @@
       <c r="E37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H37" t="str">
+        <v>North AmericaMexico</v>
+      </c>
+      <c r="I37" t="str" cm="1">
+        <f t="array" ref="I37:J37">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H37),,-1)))</f>
+        <v>A</v>
+      </c>
+      <c r="J37" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>31</v>
       </c>
@@ -2111,8 +2342,18 @@
       <c r="E38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H38" t="str">
+        <v>North AmericaPanama</v>
+      </c>
+      <c r="I38" t="str" cm="1">
+        <f t="array" ref="I38:J38">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H38),,-1)))</f>
+        <v>C</v>
+      </c>
+      <c r="J38" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" t="str">
         <f>C38</f>
         <v>Europe</v>
@@ -2123,8 +2364,18 @@
       <c r="E39" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H39" t="str">
+        <v>North AmericaUS</v>
+      </c>
+      <c r="I39" t="str" cm="1">
+        <f t="array" ref="I39:J39">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H39),,-1)))</f>
+        <v>E</v>
+      </c>
+      <c r="J39" t="str">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" t="str">
         <f>C39</f>
         <v>Europe</v>
@@ -2135,8 +2386,18 @@
       <c r="E40" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H40" t="str">
+        <v>South AmericaBrazil</v>
+      </c>
+      <c r="I40" t="str" cm="1">
+        <f t="array" ref="I40:J40">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H40),,-1)))</f>
+        <v>B</v>
+      </c>
+      <c r="J40" t="str">
+        <v>G</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" t="str">
         <f>C40</f>
         <v>Europe</v>
@@ -2147,8 +2408,18 @@
       <c r="E41" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H41" t="str">
+        <v>South AmericaChile</v>
+      </c>
+      <c r="I41" t="str" cm="1">
+        <f t="array" ref="I41:J41">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H41),,-1)))</f>
+        <v>A</v>
+      </c>
+      <c r="J41" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" t="str">
         <f>C41</f>
         <v>Europe</v>
@@ -2159,8 +2430,18 @@
       <c r="E42" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H42" t="str">
+        <v>South AmericaParagua</v>
+      </c>
+      <c r="I42" t="str" cm="1">
+        <f t="array" ref="I42:J42">TRANSPOSE(_xlfn._xlws.SORT(_xlfn.TAKE(_xlfn._xlws.FILTER(Table2[],Table2[Continent]&amp;Table2[Country]=H42),,-1)))</f>
+        <v>C</v>
+      </c>
+      <c r="J42" t="str">
+        <v>D</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>29</v>
       </c>
@@ -2171,7 +2452,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>29</v>
       </c>
@@ -2182,7 +2463,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C45" t="str">
         <f t="shared" ref="C45:C50" si="2">C44</f>
         <v>North America</v>
@@ -2194,7 +2475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C46" t="str">
         <f t="shared" si="2"/>
         <v>North America</v>
@@ -2206,7 +2487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" t="str">
         <f t="shared" si="2"/>
         <v>North America</v>
@@ -2218,7 +2499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" t="str">
         <f t="shared" si="2"/>
         <v>North America</v>
@@ -2330,12 +2611,15 @@
     <sortCondition ref="D9:D56"/>
     <sortCondition descending="1" ref="E9:E56"/>
   </sortState>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P5:P15" xr:uid="{A982EC82-CE10-468B-9A15-9C20D665D947}">
       <formula1>_xlfn.ANCHORARRAY($H$8)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q15" xr:uid="{393ADD2D-73F5-4C96-80C8-E0A8C150E88D}">
       <formula1>_xlfn.ANCHORARRAY(_xlfn.XLOOKUP($P5,$H$8:$H$14,$I$8:$I$14,"",0))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R15" xr:uid="{D649A6DD-2297-4CF2-822C-009695528BC7}">
+      <formula1>_xlfn.ANCHORARRAY(_xlfn.XLOOKUP(P5&amp;Q5,$H$19:$H$42,$I$19:$I$42))</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2390,7 +2674,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>08-Mar-2024</v>
+        <v>09-Mar-2024</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2700,7 +2984,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>08-Mar-2024</v>
+        <v>09-Mar-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>

--- a/DynamicValidation.xlsx
+++ b/DynamicValidation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0ECA31-94A4-4A7C-89EE-757238231F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBD0A3C-1064-4065-BE51-8CF0F103CCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AD5FE48E-9CE6-4EDE-8F69-E8FD3B4EAF42}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="66">
   <si>
     <t>FROM:</t>
   </si>
@@ -530,7 +530,7 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="8"/>
@@ -550,6 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Calculation" xfId="16" builtinId="22" customBuiltin="1"/>
@@ -1228,7 +1229,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F44C8824-5739-49B7-BCFF-9C42983375DF}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="B17:F28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0">
@@ -1537,7 +1538,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1583,7 +1584,12 @@
       <c r="P4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="17"/>
+      <c r="Q4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="P5" s="14" t="s">
@@ -2623,8 +2629,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2674,7 +2681,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>09-Mar-2024</v>
+        <v>13-Mar-2024</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2984,7 +2991,7 @@
       </c>
       <c r="B3" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">HD_Date</f>
-        <v>09-Mar-2024</v>
+        <v>13-Mar-2024</v>
       </c>
       <c r="C3" s="2"/>
     </row>
